--- a/Schema/ERMSchemaDoc.xlsx
+++ b/Schema/ERMSchemaDoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_code\enterprise-route-management\Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D23AFB69-D0D7-4E14-BAC6-1709F8CE258F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3961C-2ED6-4E4B-BC8C-62BF073910ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDA34701-FAC7-4199-B2BF-D142CEC30FB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EDA34701-FAC7-4199-B2BF-D142CEC30FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema-AllClasses" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="488">
   <si>
     <t>ERM Field</t>
   </si>
@@ -1543,6 +1543,15 @@
   <si>
     <t>SpecialtyName</t>
   </si>
+  <si>
+    <t>loadid</t>
+  </si>
+  <si>
+    <t>This field was added after spreadsheet made. May need to updated VRP info when moving to markdown</t>
+  </si>
+  <si>
+    <t>nextstoptype</t>
+  </si>
 </sst>
 </file>
 
@@ -1588,7 +1597,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1613,6 +1622,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1626,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1662,11 +1677,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1997,26 +2025,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32153D81-AD30-43DC-A256-1E031514BB29}">
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2042,7 +2070,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2067,7 +2095,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2092,7 +2120,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2139,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2136,7 +2164,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2161,7 +2189,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2214,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2211,7 +2239,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2236,7 +2264,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2261,7 +2289,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2280,7 +2308,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2299,7 +2327,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2318,7 +2346,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2337,7 +2365,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2356,7 +2384,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2380,7 +2408,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2404,7 +2432,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2428,7 +2456,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -2452,7 +2480,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2477,7 +2505,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2504,7 +2532,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="4" t="b">
         <f t="shared" ref="E22:E85" si="1">OR(ISBLANK(B22),ISBLANK(D22),B22=D22,D22="*not currently supported*")</f>
@@ -2512,7 +2540,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,7 +2562,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2556,7 +2584,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -2581,7 +2609,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2606,7 +2634,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>179</v>
       </c>
@@ -2625,7 +2653,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>179</v>
       </c>
@@ -2644,7 +2672,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>179</v>
       </c>
@@ -2663,7 +2691,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>179</v>
       </c>
@@ -2682,7 +2710,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>179</v>
       </c>
@@ -2698,7 +2726,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2723,7 +2751,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -2748,7 +2776,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2773,7 +2801,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -2798,7 +2826,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -2823,7 +2851,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2848,7 +2876,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2867,7 +2895,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -2892,7 +2920,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,7 +2945,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2942,7 +2970,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2964,7 +2992,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -2989,7 +3017,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -3014,7 +3042,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="336.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>46</v>
       </c>
@@ -3039,7 +3067,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -3064,7 +3092,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3089,7 +3117,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -3114,7 +3142,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -3139,7 +3167,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>179</v>
       </c>
@@ -3158,7 +3186,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>179</v>
       </c>
@@ -3177,7 +3205,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>179</v>
       </c>
@@ -3196,7 +3224,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>179</v>
       </c>
@@ -3215,7 +3243,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>179</v>
       </c>
@@ -3234,7 +3262,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -3259,7 +3287,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
@@ -3286,7 +3314,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
@@ -3313,7 +3341,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
@@ -3335,7 +3363,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
@@ -3359,7 +3387,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>46</v>
       </c>
@@ -3386,7 +3414,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
@@ -3413,7 +3441,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>179</v>
       </c>
@@ -3434,7 +3462,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>179</v>
       </c>
@@ -3455,7 +3483,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>179</v>
       </c>
@@ -3476,7 +3504,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
@@ -3501,7 +3529,7 @@
       </c>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
@@ -3526,7 +3554,7 @@
       </c>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,7 +3571,7 @@
       <c r="F67" s="6"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -3559,7 +3587,7 @@
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -3586,7 +3614,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
@@ -3605,7 +3633,7 @@
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
@@ -3632,7 +3660,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
@@ -3659,7 +3687,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3671,7 +3699,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D74" s="2" t="s">
         <v>199</v>
       </c>
@@ -3683,7 +3711,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>179</v>
       </c>
@@ -3701,7 +3729,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>179</v>
       </c>
@@ -3719,7 +3747,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>179</v>
       </c>
@@ -3737,7 +3765,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>179</v>
       </c>
@@ -3755,7 +3783,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>179</v>
       </c>
@@ -3773,7 +3801,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>179</v>
       </c>
@@ -3791,7 +3819,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
         <v>179</v>
       </c>
@@ -3809,7 +3837,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>179</v>
       </c>
@@ -3827,7 +3855,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
         <v>179</v>
       </c>
@@ -3845,7 +3873,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
         <v>179</v>
       </c>
@@ -3857,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>179</v>
       </c>
@@ -3869,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
         <v>179</v>
       </c>
@@ -3877,7 +3905,7 @@
         <v>164</v>
       </c>
       <c r="E86" s="4" t="b">
-        <f t="shared" ref="E86:E149" si="2">OR(ISBLANK(B86),ISBLANK(D86),B86=D86,D86="*not currently supported*")</f>
+        <f t="shared" ref="E86:E150" si="2">OR(ISBLANK(B86),ISBLANK(D86),B86=D86,D86="*not currently supported*")</f>
         <v>1</v>
       </c>
       <c r="G86" s="10" t="s">
@@ -3887,7 +3915,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
         <v>179</v>
       </c>
@@ -3905,7 +3933,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
         <v>179</v>
       </c>
@@ -3923,7 +3951,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
         <v>179</v>
       </c>
@@ -3941,7 +3969,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
         <v>179</v>
       </c>
@@ -3959,7 +3987,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
         <v>179</v>
       </c>
@@ -3974,7 +4002,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
         <v>179</v>
       </c>
@@ -3989,162 +4017,162 @@
         <v>469</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>485</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="G93" s="15" t="s">
+        <v>486</v>
       </c>
       <c r="H93" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E94" s="4" t="b">
-        <f>OR(ISBLANK(B94),ISBLANK(D94),B94=D94,D94="*not currently supported*")</f>
-        <v>1</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>343</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C95" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="E95" s="4" t="b">
         <f>OR(ISBLANK(B95),ISBLANK(D95),B95=D95,D95="*not currently supported*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H95" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B96" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="E96" s="4" t="b">
         <f>OR(ISBLANK(B96),ISBLANK(D96),B96=D96,D96="*not currently supported*")</f>
-        <v>1</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>319</v>
+        <v>0</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="H96" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E97" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>345</v>
+        <f>OR(ISBLANK(B97),ISBLANK(D97),B97=D97,D97="*not currently supported*")</f>
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="H97" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E98" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H98" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E99" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="H99" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E100" s="4" t="b">
         <f t="shared" si="2"/>
@@ -4154,852 +4182,849 @@
         <v>347</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E101" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H101" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E102" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H102" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E103" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H103" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E104" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H104" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H105" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>350</v>
+      <c r="D106" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E106" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H106" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>215</v>
+      <c r="D107" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="E107" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F107" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="G107" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H107" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E108" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H108" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E109" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H109" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E110" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H110" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E111" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H111" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C112" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="E112" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H112" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E113" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H113" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E114" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H114" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E115" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H115" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E116" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H116" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="E117" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H117" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E118" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H118" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E119" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H119" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E120" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H120" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E121" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H121" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="E122" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="H122" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E123" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G123" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="H123" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="E124" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E125" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E126" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E127" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E128" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E129" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E130" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E131" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E132" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E133" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E134" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>199</v>
+        <v>80</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="E135" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G135" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F135" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>199</v>
@@ -5012,228 +5037,228 @@
         <v>468</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>236</v>
+        <v>82</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E137" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E138" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E139" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E140" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E141" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E142" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C143" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E143" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="F143" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="G143" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="H143" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E144" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H144" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="E145" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>320</v>
+      <c r="G145" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="H145" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E146" s="4" t="b">
         <f t="shared" si="2"/>
@@ -5246,45 +5271,48 @@
         <v>473</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E147" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G147" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G147" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H147" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E148" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G148" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G148" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E149" s="4" t="b">
         <f t="shared" si="2"/>
@@ -5294,42 +5322,42 @@
         <v>468</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E150" s="4" t="b">
-        <f t="shared" ref="E150:E213" si="3">OR(ISBLANK(B150),ISBLANK(D150),B150=D150,D150="*not currently supported*")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E151" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E151:E215" si="3">OR(ISBLANK(B151),ISBLANK(D151),B151=D151,D151="*not currently supported*")</f>
         <v>1</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E152" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5339,12 +5367,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E153" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5354,280 +5382,266 @@
         <v>468</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="E154" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H154" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G154" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E155" s="4" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>286</v>
+        <v>487</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="G155" s="15" t="s">
+        <v>486</v>
       </c>
       <c r="H155" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E156" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>389</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="E157" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="H157" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E158" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H158" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E159" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F159" s="6"/>
-      <c r="G159" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F159" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H159" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E160" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F160" s="6"/>
-      <c r="G160" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F160" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H160" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E161" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F161" s="6" t="s">
-        <v>258</v>
-      </c>
+      <c r="F161" s="6"/>
       <c r="G161" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E162" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F162" s="6" t="s">
-        <v>259</v>
-      </c>
+      <c r="F162" s="6"/>
       <c r="G162" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E163" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F163" s="6"/>
+      <c r="F163" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="G163" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E164" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F164" s="6"/>
+      <c r="F164" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="G164" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E165" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5638,15 +5652,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>199</v>
+        <v>25</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E166" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5657,15 +5674,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>199</v>
+        <v>26</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E167" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5676,108 +5696,104 @@
         <v>468</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>127</v>
+        <v>27</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E168" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>289</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F168" s="6"/>
       <c r="G168" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E169" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>290</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F169" s="6"/>
       <c r="G169" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E170" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E171" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E172" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5787,18 +5803,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E173" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5808,18 +5824,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E174" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5829,12 +5845,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C175" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E175" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5844,12 +5866,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C176" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E176" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5859,12 +5887,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C177" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E177" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5874,12 +5902,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E178" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5889,636 +5917,636 @@
         <v>468</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C179" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E179" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H179" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="G179" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="E180" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G180" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="H180" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G180" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="E181" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G181" s="10" t="s">
-        <v>393</v>
-      </c>
       <c r="H181" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E182" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H182" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E183" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H183" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="E184" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H184" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C185" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E185" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H185" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>249</v>
+        <v>118</v>
       </c>
       <c r="E186" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H186" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C187" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="E187" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G187" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="H187" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G187" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E188" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H188" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="E189" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H189" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="E190" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H190" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E191" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G191" s="5" t="s">
-        <v>468</v>
+      <c r="G191" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="H191" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E192" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H192" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="E193" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G193" s="10" t="s">
-        <v>403</v>
+      <c r="G193" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="H193" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E194" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="H194" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E195" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H195" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E196" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="H196" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>199</v>
+        <v>25</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E197" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G197" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="H197" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>199</v>
+        <v>26</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E198" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G198" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H198" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>127</v>
+        <v>27</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E199" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G199" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="H199" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E200" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G200" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="H200" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E201" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H201" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="E202" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H202" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E203" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H203" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="E204" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H204" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C205" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E205" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G205" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G205" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="H205" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C206" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E206" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G206" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G206" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="H206" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C207" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="E207" s="4" t="b">
         <f t="shared" si="3"/>
@@ -6528,12 +6556,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C208" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="E208" s="4" t="b">
         <f t="shared" si="3"/>
@@ -6543,159 +6571,159 @@
         <v>468</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C209" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="E209" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H209" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G209" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C210" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="E210" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H210" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G210" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E211" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G211" s="10" t="s">
-        <v>412</v>
-      </c>
       <c r="H211" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="E212" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G212" s="10" t="s">
-        <v>413</v>
-      </c>
       <c r="H212" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C213" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>242</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E213" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G213" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G213" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H213" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C214" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="E214" s="4" t="b">
-        <f t="shared" ref="E214:E233" si="4">OR(ISBLANK(B214),ISBLANK(D214),B214=D214,D214="*not currently supported*")</f>
-        <v>1</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G214" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="H214" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C215" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="E215" s="4" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C216" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E216" s="4" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E216:E235" si="4">OR(ISBLANK(B216),ISBLANK(D216),B216=D216,D216="*not currently supported*")</f>
         <v>1</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C217" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E217" s="4" t="b">
         <f t="shared" si="4"/>
@@ -6705,48 +6733,42 @@
         <v>468</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>199</v>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C218" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E218" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>199</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C219" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E219" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>199</v>
@@ -6759,12 +6781,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>199</v>
@@ -6777,12 +6799,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>199</v>
@@ -6795,84 +6817,96 @@
         <v>415</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E223" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H223" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G223" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>254</v>
+        <v>100</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E224" s="4" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G224" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="H224" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>199</v>
+        <v>15</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E225" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G225" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H225" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="D226" s="1" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="E226" s="4" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D227" s="1" t="s">
-        <v>192</v>
+        <v>0</v>
+      </c>
+      <c r="G226" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="H226" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E227" s="4" t="b">
         <f t="shared" si="4"/>
@@ -6882,9 +6916,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E228" s="4" t="b">
         <f t="shared" si="4"/>
@@ -6894,9 +6928,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D229" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E229" s="4" t="b">
         <f t="shared" si="4"/>
@@ -6906,245 +6940,241 @@
         <v>468</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>198</v>
-      </c>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="E230" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H230" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="G230" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D231" s="1" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E231" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G231" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="H231" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G231" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E232" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G232" s="10" t="s">
-        <v>418</v>
-      </c>
       <c r="H232" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E233" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G233" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H233" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E234" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G234" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H234" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E235" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G235" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H235" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C236" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G236" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="H236" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C237" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G237" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H237" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G238" s="3" t="s">
-        <v>429</v>
+        <v>137</v>
+      </c>
+      <c r="G238" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="H238" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C239" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>421</v>
+        <v>147</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
       <c r="H239" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C240" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G240" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="H240" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="241" spans="3:8" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="241" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C241" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="H241" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="242" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C242" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>135</v>
+        <v>422</v>
       </c>
       <c r="G242" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H242" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="243" spans="3:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="243" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C243" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="H243" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="244" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C244" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>320</v>
+        <v>135</v>
+      </c>
+      <c r="G244" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="H244" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="245" spans="3:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C245" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>146</v>
+        <v>424</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>320</v>
+        <v>432</v>
       </c>
       <c r="H245" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="246" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C246" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>166</v>
+        <v>425</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>320</v>
@@ -7153,372 +7183,405 @@
         <v>473</v>
       </c>
     </row>
-    <row r="247" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C247" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>426</v>
+        <v>146</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="H247" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="248" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C248" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E248" s="4"/>
-      <c r="G248" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="249" spans="3:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H248" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="249" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C249" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E249" s="4"/>
-      <c r="G249" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="250" spans="3:8" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H249" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="250" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C250" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E250" s="4"/>
       <c r="G250" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="251" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C251" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E251" s="4"/>
       <c r="G251" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="253" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C252" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E252" s="4"/>
+      <c r="G252" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="253" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C253" s="1" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="254" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C254" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G254" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E253" s="4"/>
+      <c r="G253" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="255" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C255" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G255" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H255" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="256" spans="3:8" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="256" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C256" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G256" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="H256" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="257" spans="3:8" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="257" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C257" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H257" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="258" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C258" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G258" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="259" spans="3:8" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="G258" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="H258" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="259" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C259" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H259" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="260" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C260" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G260" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="H260" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="261" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="261" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C261" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>110</v>
+        <v>439</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>298</v>
+        <v>452</v>
       </c>
       <c r="H261" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C262" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>235</v>
+        <v>440</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H262" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="263" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C263" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>455</v>
+        <v>298</v>
       </c>
       <c r="H263" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="264" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C264" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>441</v>
+        <v>235</v>
       </c>
       <c r="G264" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H264" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="265" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C265" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>442</v>
+        <v>231</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H265" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="266" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C266" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G266" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="267" spans="3:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="G266" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="H266" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="267" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C267" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>111</v>
+        <v>442</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H267" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="268" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C268" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G268" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="H268" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="269" spans="3:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="269" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C269" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H269" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="270" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C270" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H270" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="271" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C271" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>444</v>
+        <v>113</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H271" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="272" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C272" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G272" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="G272" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="H272" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="273" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C273" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G273" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="G273" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="H273" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="274" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C274" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G274" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C275" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>468</v>
       </c>
     </row>
+    <row r="276" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C276" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C277" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E247 E252:E1048576 G1:H1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
+  <conditionalFormatting sqref="E1:E154 E254:E1048576 G1:H1 E156:E249">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E248:E251">
+  <conditionalFormatting sqref="E250:E253">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",E250)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",E248)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",E155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7750,18 +7813,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7784,6 +7847,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D93A991-478B-499D-AF9B-1F0B37B6B22A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961E40A6-F9B0-4484-A79E-BC0DB6B09F97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7798,12 +7869,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D93A991-478B-499D-AF9B-1F0B37B6B22A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Schema/ERMSchemaDoc.xlsx
+++ b/Schema/ERMSchemaDoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_code\enterprise-route-management\Schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mich4255/Documents/_products/ERM/schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3961C-2ED6-4E4B-BC8C-62BF073910ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9205334E-201D-754D-8869-8E076B74341B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EDA34701-FAC7-4199-B2BF-D142CEC30FB3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{EDA34701-FAC7-4199-B2BF-D142CEC30FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema-AllClasses" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2027,24 +2029,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32153D81-AD30-43DC-A256-1E031514BB29}">
   <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" style="10" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2164,7 +2166,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2214,7 +2216,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2239,7 +2241,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2264,7 +2266,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2432,7 +2434,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2456,7 +2458,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
       <c r="E22" s="4" t="b">
         <f t="shared" ref="E22:E85" si="1">OR(ISBLANK(B22),ISBLANK(D22),B22=D22,D22="*not currently supported*")</f>
@@ -2540,7 +2542,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2562,7 +2564,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2634,7 +2636,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>179</v>
       </c>
@@ -2653,7 +2655,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>179</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>179</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>179</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>179</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -2826,7 +2828,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2895,7 +2897,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2945,7 +2947,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2992,7 +2994,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -3017,7 +3019,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,7 +3044,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>46</v>
       </c>
@@ -3067,7 +3069,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -3092,7 +3094,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3117,7 +3119,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -3142,7 +3144,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,7 +3169,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>179</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>179</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>179</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>179</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>179</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -3287,7 +3289,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
@@ -3363,7 +3365,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>46</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>179</v>
       </c>
@@ -3462,7 +3464,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>179</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>179</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
@@ -3529,7 +3531,7 @@
       </c>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
@@ -3554,7 +3556,7 @@
       </c>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -3571,7 +3573,7 @@
       <c r="F67" s="6"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -3587,7 +3589,7 @@
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
@@ -3633,7 +3635,7 @@
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
@@ -3687,7 +3689,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D74" s="2" t="s">
         <v>199</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>179</v>
       </c>
@@ -3729,7 +3731,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>179</v>
       </c>
@@ -3747,7 +3749,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>179</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
         <v>179</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
         <v>179</v>
       </c>
@@ -3801,7 +3803,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>179</v>
       </c>
@@ -3819,7 +3821,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>179</v>
       </c>
@@ -3837,7 +3839,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>179</v>
       </c>
@@ -3855,7 +3857,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>179</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>179</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>179</v>
       </c>
@@ -3897,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>179</v>
       </c>
@@ -3915,7 +3917,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>179</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>179</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>179</v>
       </c>
@@ -3969,7 +3971,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>179</v>
       </c>
@@ -3987,7 +3989,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>179</v>
       </c>
@@ -4002,7 +4004,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>179</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>179</v>
       </c>
@@ -4032,7 +4034,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>87</v>
       </c>
@@ -4053,7 +4055,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>87</v>
       </c>
@@ -4074,7 +4076,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>87</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>2</v>
       </c>
@@ -4119,7 +4121,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4143,7 +4145,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4167,7 +4169,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>195</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>195</v>
       </c>
@@ -4197,7 +4199,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>87</v>
       </c>
@@ -4221,7 +4223,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>87</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>87</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>87</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>87</v>
       </c>
@@ -4317,7 +4319,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>87</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>87</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>87</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>87</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>87</v>
       </c>
@@ -4440,7 +4442,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>87</v>
       </c>
@@ -4464,7 +4466,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="s">
         <v>195</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C114" s="1" t="s">
         <v>195</v>
       </c>
@@ -4500,7 +4502,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C115" s="1" t="s">
         <v>195</v>
       </c>
@@ -4518,7 +4520,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C116" s="1" t="s">
         <v>195</v>
       </c>
@@ -4536,7 +4538,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C117" s="1" t="s">
         <v>195</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>87</v>
       </c>
@@ -4578,7 +4580,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>87</v>
       </c>
@@ -4602,7 +4604,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>87</v>
       </c>
@@ -4626,7 +4628,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>87</v>
       </c>
@@ -4650,7 +4652,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>87</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>87</v>
       </c>
@@ -4698,7 +4700,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>87</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>87</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>87</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>87</v>
       </c>
@@ -4803,7 +4805,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>87</v>
       </c>
@@ -4830,7 +4832,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>87</v>
       </c>
@@ -4857,7 +4859,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>87</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>87</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>87</v>
       </c>
@@ -4938,7 +4940,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>87</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>87</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>87</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>87</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>87</v>
       </c>
@@ -5055,7 +5057,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>87</v>
       </c>
@@ -5082,7 +5084,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>87</v>
       </c>
@@ -5109,7 +5111,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>87</v>
       </c>
@@ -5136,7 +5138,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>87</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>87</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>87</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C144" s="1" t="s">
         <v>195</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C145" s="1" t="s">
         <v>195</v>
       </c>
@@ -5253,7 +5255,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C146" s="1" t="s">
         <v>195</v>
       </c>
@@ -5271,7 +5273,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C147" s="1" t="s">
         <v>195</v>
       </c>
@@ -5289,7 +5291,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C148" s="1" t="s">
         <v>195</v>
       </c>
@@ -5307,7 +5309,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C149" s="1" t="s">
         <v>195</v>
       </c>
@@ -5322,7 +5324,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C150" s="1" t="s">
         <v>195</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
         <v>195</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C152" s="1" t="s">
         <v>195</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C153" s="1" t="s">
         <v>195</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C154" s="1" t="s">
         <v>195</v>
       </c>
@@ -5397,7 +5399,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C155" s="1" t="s">
         <v>195</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>97</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>97</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>97</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>97</v>
       </c>
@@ -5511,7 +5513,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>97</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>97</v>
       </c>
@@ -5560,7 +5562,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>97</v>
       </c>
@@ -5582,7 +5584,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>97</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>97</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>97</v>
       </c>
@@ -5652,7 +5654,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>97</v>
       </c>
@@ -5674,7 +5676,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>97</v>
       </c>
@@ -5696,7 +5698,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>97</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>97</v>
       </c>
@@ -5734,7 +5736,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>97</v>
       </c>
@@ -5758,7 +5760,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>97</v>
       </c>
@@ -5782,7 +5784,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>97</v>
       </c>
@@ -5803,7 +5805,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>97</v>
       </c>
@@ -5824,7 +5826,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>97</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>97</v>
       </c>
@@ -5866,7 +5868,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>97</v>
       </c>
@@ -5887,7 +5889,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C177" s="1" t="s">
         <v>134</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C178" s="1" t="s">
         <v>134</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C179" s="1" t="s">
         <v>134</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C180" s="1" t="s">
         <v>134</v>
       </c>
@@ -5947,7 +5949,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>95</v>
       </c>
@@ -5968,7 +5970,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>95</v>
       </c>
@@ -5992,7 +5994,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>95</v>
       </c>
@@ -6016,7 +6018,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>95</v>
       </c>
@@ -6040,7 +6042,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>95</v>
       </c>
@@ -6064,7 +6066,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>95</v>
       </c>
@@ -6088,7 +6090,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
         <v>196</v>
       </c>
@@ -6103,7 +6105,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>95</v>
       </c>
@@ -6127,7 +6129,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>95</v>
       </c>
@@ -6151,7 +6153,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>95</v>
       </c>
@@ -6175,7 +6177,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>95</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>95</v>
       </c>
@@ -6223,7 +6225,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>95</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>95</v>
       </c>
@@ -6271,7 +6273,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>95</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>95</v>
       </c>
@@ -6319,7 +6321,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>95</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>95</v>
       </c>
@@ -6382,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>95</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>95</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>95</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>95</v>
       </c>
@@ -6469,7 +6471,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>95</v>
       </c>
@@ -6493,7 +6495,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>95</v>
       </c>
@@ -6517,7 +6519,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>95</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C207" s="1" t="s">
         <v>196</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C208" s="1" t="s">
         <v>196</v>
       </c>
@@ -6571,7 +6573,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C209" s="1" t="s">
         <v>196</v>
       </c>
@@ -6586,7 +6588,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C210" s="1" t="s">
         <v>196</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>99</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>99</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>99</v>
       </c>
@@ -6664,7 +6666,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>99</v>
       </c>
@@ -6688,7 +6690,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C215" s="1" t="s">
         <v>197</v>
       </c>
@@ -6703,7 +6705,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C216" s="1" t="s">
         <v>197</v>
       </c>
@@ -6718,7 +6720,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C217" s="1" t="s">
         <v>197</v>
       </c>
@@ -6733,7 +6735,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C218" s="1" t="s">
         <v>197</v>
       </c>
@@ -6748,7 +6750,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C219" s="1" t="s">
         <v>197</v>
       </c>
@@ -6763,7 +6765,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>101</v>
       </c>
@@ -6781,7 +6783,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>101</v>
       </c>
@@ -6799,7 +6801,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>101</v>
       </c>
@@ -6817,7 +6819,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>101</v>
       </c>
@@ -6835,7 +6837,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>101</v>
       </c>
@@ -6853,7 +6855,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>102</v>
       </c>
@@ -6874,7 +6876,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>102</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>102</v>
       </c>
@@ -6916,7 +6918,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D228" s="1" t="s">
         <v>191</v>
       </c>
@@ -6928,7 +6930,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D229" s="1" t="s">
         <v>192</v>
       </c>
@@ -6940,7 +6942,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D230" s="1" t="s">
         <v>193</v>
       </c>
@@ -6952,7 +6954,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D231" s="1" t="s">
         <v>194</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>103</v>
       </c>
@@ -6985,7 +6987,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>103</v>
       </c>
@@ -7009,7 +7011,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>103</v>
       </c>
@@ -7033,7 +7035,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>103</v>
       </c>
@@ -7057,7 +7059,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C238" s="1" t="s">
         <v>338</v>
       </c>
@@ -7071,7 +7073,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C239" s="1" t="s">
         <v>338</v>
       </c>
@@ -7085,7 +7087,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C240" s="1" t="s">
         <v>338</v>
       </c>
@@ -7096,10 +7098,10 @@
         <v>429</v>
       </c>
       <c r="H240" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="241" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C241" s="1" t="s">
         <v>338</v>
       </c>
@@ -7113,7 +7115,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="242" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C242" s="1" t="s">
         <v>338</v>
       </c>
@@ -7127,7 +7129,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="243" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C243" s="1" t="s">
         <v>338</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="244" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C244" s="1" t="s">
         <v>338</v>
       </c>
@@ -7155,7 +7157,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="245" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C245" s="1" t="s">
         <v>338</v>
       </c>
@@ -7169,7 +7171,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="246" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C246" s="1" t="s">
         <v>338</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="247" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C247" s="1" t="s">
         <v>338</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="248" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C248" s="1" t="s">
         <v>338</v>
       </c>
@@ -7211,7 +7213,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="249" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C249" s="1" t="s">
         <v>338</v>
       </c>
@@ -7225,7 +7227,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="250" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C250" s="1" t="s">
         <v>338</v>
       </c>
@@ -7237,7 +7239,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="251" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C251" s="1" t="s">
         <v>338</v>
       </c>
@@ -7249,7 +7251,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="252" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C252" s="1" t="s">
         <v>338</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="253" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C253" s="1" t="s">
         <v>338</v>
       </c>
@@ -7273,7 +7275,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="255" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C255" s="1" t="s">
         <v>433</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="256" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C256" s="1" t="s">
         <v>433</v>
       </c>
@@ -7292,7 +7294,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="257" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C257" s="1" t="s">
         <v>433</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="258" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C258" s="1" t="s">
         <v>433</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="259" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C259" s="1" t="s">
         <v>433</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="260" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C260" s="1" t="s">
         <v>433</v>
       </c>
@@ -7345,7 +7347,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="261" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C261" s="1" t="s">
         <v>433</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C262" s="1" t="s">
         <v>433</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="263" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C263" s="1" t="s">
         <v>433</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="264" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C264" s="1" t="s">
         <v>433</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="265" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C265" s="1" t="s">
         <v>433</v>
       </c>
@@ -7415,7 +7417,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="266" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C266" s="1" t="s">
         <v>433</v>
       </c>
@@ -7429,7 +7431,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="267" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C267" s="1" t="s">
         <v>433</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="268" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C268" s="1" t="s">
         <v>433</v>
       </c>
@@ -7454,7 +7456,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="269" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C269" s="1" t="s">
         <v>433</v>
       </c>
@@ -7468,7 +7470,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="270" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C270" s="1" t="s">
         <v>433</v>
       </c>
@@ -7482,7 +7484,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="271" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C271" s="1" t="s">
         <v>433</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="272" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C272" s="1" t="s">
         <v>433</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="273" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C273" s="1" t="s">
         <v>433</v>
       </c>
@@ -7524,7 +7526,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="274" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C274" s="1" t="s">
         <v>433</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="275" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C275" s="1" t="s">
         <v>433</v>
       </c>
@@ -7546,7 +7548,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="276" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C276" s="1" t="s">
         <v>433</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="277" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C277" s="1" t="s">
         <v>433</v>
       </c>
@@ -7813,18 +7815,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7847,14 +7849,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D93A991-478B-499D-AF9B-1F0B37B6B22A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961E40A6-F9B0-4484-A79E-BC0DB6B09F97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7869,4 +7863,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D93A991-478B-499D-AF9B-1F0B37B6B22A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Schema/ERMSchemaDoc.xlsx
+++ b/Schema/ERMSchemaDoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ERM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mich4255/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11ADCD7E-3086-41A3-A209-47E77E9C0BF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59D3B9F4-4CC1-8342-8F4C-C0732E67E88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20436" windowHeight="10284" xr2:uid="{EDA34701-FAC7-4199-B2BF-D142CEC30FB3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{EDA34701-FAC7-4199-B2BF-D142CEC30FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema-AllClasses" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="499">
   <si>
     <t>ERM Field</t>
   </si>
@@ -1557,6 +1560,33 @@
   </si>
   <si>
     <t>Optional - Required using mobile field solution Workforce</t>
+  </si>
+  <si>
+    <t>geoorderstate</t>
+  </si>
+  <si>
+    <t>Tracks state of the order [UNASSIGNED, ASSIGNED, LOCKED, IN_PROGRESS, CANCELED, DECLINED, COMPLETED]. Set by ERM API</t>
+  </si>
+  <si>
+    <t>statelastupdated</t>
+  </si>
+  <si>
+    <t>Last update of geoorderstate. Calculated by ERM API</t>
+  </si>
+  <si>
+    <t>statecomment</t>
+  </si>
+  <si>
+    <t>Comment from Workforce Integration</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>locationname</t>
+  </si>
+  <si>
+    <t>Name of location stored in MDM_Location. Set by RoutePlanner app.</t>
   </si>
 </sst>
 </file>
@@ -2031,26 +2061,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32153D81-AD30-43DC-A256-1E031514BB29}">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" style="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" style="10" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2076,7 +2106,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2101,7 +2131,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2126,7 +2156,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2145,7 +2175,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2170,7 +2200,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2225,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2220,7 +2250,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2245,7 +2275,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2270,7 +2300,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2325,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +2344,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2333,7 +2363,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2352,7 +2382,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2371,7 +2401,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2390,7 +2420,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2414,7 +2444,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2438,7 +2468,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2462,7 +2492,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -2486,7 +2516,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2511,7 +2541,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2538,7 +2568,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
       <c r="E22" s="4" t="b">
         <f t="shared" ref="E22:E85" si="1">OR(ISBLANK(B22),ISBLANK(D22),B22=D22,D22="*not currently supported*")</f>
@@ -2546,7 +2576,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2568,7 +2598,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2590,7 +2620,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -2615,7 +2645,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2640,7 +2670,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>179</v>
       </c>
@@ -2659,7 +2689,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>179</v>
       </c>
@@ -2678,7 +2708,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>179</v>
       </c>
@@ -2697,7 +2727,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>179</v>
       </c>
@@ -2716,7 +2746,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>179</v>
       </c>
@@ -2732,7 +2762,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2757,7 +2787,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -2782,7 +2812,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2807,7 +2837,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -2832,7 +2862,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -2857,7 +2887,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2882,7 +2912,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2901,7 +2931,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -2926,7 +2956,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2951,7 +2981,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2976,7 +3006,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2998,7 +3028,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -3023,7 +3053,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -3048,7 +3078,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>46</v>
       </c>
@@ -3073,7 +3103,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -3098,7 +3128,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3123,7 +3153,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -3148,7 +3178,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -3173,7 +3203,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>179</v>
       </c>
@@ -3192,7 +3222,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>179</v>
       </c>
@@ -3211,7 +3241,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>179</v>
       </c>
@@ -3230,7 +3260,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>179</v>
       </c>
@@ -3249,7 +3279,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>179</v>
       </c>
@@ -3268,7 +3298,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,7 +3323,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
@@ -3320,7 +3350,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
@@ -3347,7 +3377,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
@@ -3369,7 +3399,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
@@ -3393,7 +3423,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,7 +3450,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
@@ -3447,7 +3477,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>179</v>
       </c>
@@ -3468,7 +3498,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>179</v>
       </c>
@@ -3489,7 +3519,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>179</v>
       </c>
@@ -3510,7 +3540,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
@@ -3535,7 +3565,7 @@
       </c>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
@@ -3560,7 +3590,7 @@
       </c>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -3577,7 +3607,7 @@
       <c r="F67" s="6"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -3593,7 +3623,7 @@
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -3620,7 +3650,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
@@ -3639,7 +3669,7 @@
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
@@ -3666,7 +3696,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
@@ -3693,7 +3723,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D73" s="2" t="s">
         <v>199</v>
       </c>
@@ -3705,7 +3735,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D74" s="2" t="s">
         <v>199</v>
       </c>
@@ -3717,7 +3747,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>179</v>
       </c>
@@ -3735,7 +3765,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>179</v>
       </c>
@@ -3753,7 +3783,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>179</v>
       </c>
@@ -3771,7 +3801,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
         <v>179</v>
       </c>
@@ -3789,7 +3819,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
         <v>179</v>
       </c>
@@ -3807,7 +3837,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>179</v>
       </c>
@@ -3825,7 +3855,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>179</v>
       </c>
@@ -3843,7 +3873,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>179</v>
       </c>
@@ -3861,7 +3891,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>179</v>
       </c>
@@ -3879,7 +3909,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>179</v>
       </c>
@@ -3891,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>179</v>
       </c>
@@ -3903,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>179</v>
       </c>
@@ -3911,7 +3941,7 @@
         <v>164</v>
       </c>
       <c r="E86" s="4" t="b">
-        <f t="shared" ref="E86:E150" si="2">OR(ISBLANK(B86),ISBLANK(D86),B86=D86,D86="*not currently supported*")</f>
+        <f t="shared" ref="E86:E154" si="2">OR(ISBLANK(B86),ISBLANK(D86),B86=D86,D86="*not currently supported*")</f>
         <v>1</v>
       </c>
       <c r="G86" s="10" t="s">
@@ -3921,7 +3951,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>179</v>
       </c>
@@ -3939,7 +3969,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>179</v>
       </c>
@@ -3957,7 +3987,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>179</v>
       </c>
@@ -3975,7 +4005,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>179</v>
       </c>
@@ -3993,7 +4023,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>179</v>
       </c>
@@ -4008,7 +4038,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>179</v>
       </c>
@@ -4023,1631 +4053,1602 @@
         <v>469</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="G93" s="15" t="s">
-        <v>486</v>
+      <c r="G93" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="H93" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E94" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>492</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="G94" s="10" t="s">
+        <v>493</v>
       </c>
       <c r="H94" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" s="4" t="b">
-        <f>OR(ISBLANK(B95),ISBLANK(D95),B95=D95,D95="*not currently supported*")</f>
-        <v>1</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="E95" s="4"/>
       <c r="G95" s="10" t="s">
-        <v>343</v>
+        <v>495</v>
       </c>
       <c r="H95" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>4</v>
+        <v>496</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E96" s="4" t="b">
-        <f>OR(ISBLANK(B96),ISBLANK(D96),B96=D96,D96="*not currently supported*")</f>
-        <v>0</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E96" s="4"/>
       <c r="G96" s="10" t="s">
-        <v>344</v>
+        <v>498</v>
       </c>
       <c r="H96" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B97" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E97" s="4" t="b">
-        <f>OR(ISBLANK(B97),ISBLANK(D97),B97=D97,D97="*not currently supported*")</f>
-        <v>1</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>319</v>
+        <v>485</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="G97" s="15" t="s">
+        <v>486</v>
       </c>
       <c r="H97" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="E98" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G98" s="10" t="s">
-        <v>345</v>
-      </c>
       <c r="H98" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C99" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="E99" s="4" t="b">
-        <f t="shared" si="2"/>
+        <f>OR(ISBLANK(B99),ISBLANK(D99),B99=D99,D99="*not currently supported*")</f>
         <v>1</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E100" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>OR(ISBLANK(B100),ISBLANK(D100),B100=D100,D100="*not currently supported*")</f>
+        <v>0</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="H100" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E101" s="4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <f>OR(ISBLANK(B101),ISBLANK(D101),B101=D101,D101="*not currently supported*")</f>
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H101" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E102" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H102" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E103" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H103" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E104" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="H104" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E105" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="H105" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E106" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H106" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>350</v>
+      <c r="D107" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E107" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H107" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E108" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H108" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E109" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H109" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E110" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H110" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>218</v>
+      <c r="D111" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="E111" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F111" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="G111" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H111" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E112" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H112" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="E113" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H113" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="E114" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H114" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C115" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="E115" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H115" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="E116" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H116" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C117" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E117" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H117" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C118" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="E118" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H118" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="119" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C119" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="E119" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H119" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="E120" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H120" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C121" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="E121" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H121" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E122" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H122" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="E123" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="H123" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="E124" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G124" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H124" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E125" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="H125" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E126" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="G126" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="H126" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="E127" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="G127" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="H127" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="E128" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>372</v>
+        <v>268</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E129" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E130" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E131" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E132" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E133" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E134" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E135" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>199</v>
+        <v>75</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="E136" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G136" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F136" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>199</v>
+        <v>76</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="E137" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G137" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F137" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E138" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E139" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>238</v>
+        <v>81</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E140" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G140" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>239</v>
+        <v>82</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E141" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F141" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G141" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E142" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E143" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C144" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E144" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="F144" s="6" t="s">
+        <v>282</v>
+      </c>
       <c r="G144" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="H144" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C145" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E145" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="F145" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="G145" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="H145" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C146" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="E146" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G146" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H146" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F146" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C147" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="E147" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G147" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="H147" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F147" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C148" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="E148" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+      <c r="H148" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C149" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="E149" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G149" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G149" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H149" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C150" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E150" s="4" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G150" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G150" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H150" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E151" s="4" t="b">
-        <f t="shared" ref="E151:E215" si="3">OR(ISBLANK(B151),ISBLANK(D151),B151=D151,D151="*not currently supported*")</f>
-        <v>1</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H151" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C152" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E152" s="4" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C153" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E153" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C154" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E154" s="4" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C155" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E155" s="4"/>
-      <c r="G155" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="H155" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E155" s="4" t="b">
+        <f t="shared" ref="E155:E219" si="3">OR(ISBLANK(B155),ISBLANK(D155),B155=D155,D155="*not currently supported*")</f>
+        <v>1</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C156" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="E156" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H156" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G156" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="E157" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F157" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H157" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G157" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C158" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="E158" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="H158" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C159" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E159" s="4" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>390</v>
+        <v>487</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="G159" s="15" t="s">
+        <v>486</v>
       </c>
       <c r="H159" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E160" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F160" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="H160" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E161" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F161" s="6"/>
-      <c r="G161" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F161" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H161" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E162" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F162" s="6"/>
-      <c r="G162" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H162" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E163" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H163" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E164" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H164" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E165" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5658,18 +5659,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E166" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5680,56 +5681,66 @@
         <v>468</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E167" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F167" s="6"/>
+      <c r="F167" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="G167" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>199</v>
+        <v>23</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E168" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F168" s="6"/>
+      <c r="F168" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="G168" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>199</v>
+        <v>24</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E169" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5740,150 +5751,148 @@
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E170" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>289</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F170" s="6"/>
       <c r="G170" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E171" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>290</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F171" s="6"/>
       <c r="G171" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>129</v>
+        <v>27</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E172" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="F172" s="6"/>
       <c r="G172" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>130</v>
+        <v>28</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E173" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="F173" s="6"/>
       <c r="G173" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E174" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E175" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E176" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5893,12 +5902,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C177" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E177" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5908,12 +5923,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C178" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E178" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5923,12 +5944,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E179" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5938,12 +5965,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C180" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E180" s="4" t="b">
         <f t="shared" si="3"/>
@@ -5953,900 +5986,888 @@
         <v>468</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="181" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C181" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E181" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H181" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="G181" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C182" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="E182" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G182" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="H182" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="G182" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C183" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="E183" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G183" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H183" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="G183" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C184" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="E184" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G184" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="H184" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G184" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="E185" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G185" s="10" t="s">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="E186" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H186" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C187" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E187" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G187" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G187" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H187" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E188" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H188" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="E189" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H189" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="E190" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H190" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C191" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E191" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G191" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="H191" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G191" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="E192" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H192" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="E193" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G193" s="5" t="s">
-        <v>468</v>
+      <c r="G193" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="H193" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E194" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H194" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="E195" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H195" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E196" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
       <c r="H196" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="E197" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G197" s="10" t="s">
-        <v>404</v>
+      <c r="G197" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="H197" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E198" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G198" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H198" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>199</v>
+        <v>23</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E199" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G199" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="H199" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>199</v>
+        <v>24</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E200" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G200" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H200" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E201" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H201" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E202" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H202" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>129</v>
+        <v>27</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E203" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G203" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="H203" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>175</v>
+        <v>28</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E204" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G204" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="H204" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E205" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H205" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E206" s="4" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H206" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C207" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E207" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G207" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G207" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H207" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C208" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="E208" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G208" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G208" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H208" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C209" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="E209" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G209" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G209" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="H209" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C210" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="E210" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G210" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G210" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="H210" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C211" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E211" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H211" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G211" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C212" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E212" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H212" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>118</v>
+      <c r="G212" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C213" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="E213" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G213" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="H213" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G213" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C214" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="E214" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G214" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="H214" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G214" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C215" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="E215" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G215" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H215" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C216" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="E216" s="4" t="b">
-        <f t="shared" ref="E216:E235" si="4">OR(ISBLANK(B216),ISBLANK(D216),B216=D216,D216="*not currently supported*")</f>
-        <v>1</v>
-      </c>
-      <c r="G216" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C217" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H216" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E217" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G217" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H217" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C218" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="E218" s="4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G218" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G218" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="H218" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C219" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="E219" s="4" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>199</v>
+    <row r="220" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C220" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E220" s="4" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E220:E239" si="4">OR(ISBLANK(B220),ISBLANK(D220),B220=D220,D220="*not currently supported*")</f>
         <v>1</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>199</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C221" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E221" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>199</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C222" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E222" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>199</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C223" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E223" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>199</v>
@@ -6859,57 +6880,48 @@
         <v>415</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E225" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H225" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G225" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>254</v>
+        <v>18</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E226" s="4" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G226" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="H226" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>199</v>
@@ -6919,48 +6931,81 @@
         <v>1</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D228" s="1" t="s">
-        <v>191</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E228" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="D229" s="1" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="E229" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G229" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H229" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="D230" s="1" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="E230" s="4" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G230" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D231" s="1" t="s">
-        <v>194</v>
+        <v>0</v>
+      </c>
+      <c r="G230" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="H230" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E231" s="4" t="b">
         <f t="shared" si="4"/>
@@ -6970,231 +7015,223 @@
         <v>468</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>198</v>
-      </c>
+    <row r="232" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D232" s="1" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="E232" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H232" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="G232" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D233" s="1" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="E233" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G233" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="H233" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="G233" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D234" s="1" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="E234" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G234" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="H234" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="G234" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D235" s="1" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="E235" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G235" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="H235" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G235" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E236" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H236" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E237" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G237" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H237" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C238" s="1" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
+      </c>
+      <c r="E238" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H238" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C239" s="1" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>320</v>
+        <v>106</v>
+      </c>
+      <c r="E239" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G239" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="H239" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C240" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H240" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="241" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C241" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H241" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="242" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C242" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="G242" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H242" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="243" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C243" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>423</v>
+        <v>147</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>320</v>
       </c>
       <c r="H243" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="244" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="244" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C244" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G244" s="10" t="s">
-        <v>431</v>
+        <v>420</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="H244" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="245" spans="3:8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C245" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H245" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="246" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C246" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>320</v>
+        <v>422</v>
+      </c>
+      <c r="G246" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="H246" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="247" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C247" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>146</v>
+        <v>423</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>320</v>
@@ -7203,26 +7240,26 @@
         <v>473</v>
       </c>
     </row>
-    <row r="248" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C248" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>320</v>
+        <v>135</v>
+      </c>
+      <c r="G248" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="H248" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="249" spans="3:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="249" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C249" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>432</v>
@@ -7231,363 +7268,419 @@
         <v>473</v>
       </c>
     </row>
-    <row r="250" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C250" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E250" s="4"/>
-      <c r="G250" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="251" spans="3:8" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H250" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="251" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C251" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E251" s="4"/>
-      <c r="G251" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="252" spans="3:8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H251" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="252" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C252" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E252" s="4"/>
-      <c r="G252" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="253" spans="3:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H252" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="253" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C253" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E253" s="4"/>
-      <c r="G253" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H253" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="254" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C254" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E254" s="4"/>
+      <c r="G254" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="255" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C255" s="1" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="256" spans="3:8" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="E255" s="4"/>
+      <c r="G255" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="256" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C256" s="1" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>434</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E256" s="4"/>
       <c r="G256" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="257" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C257" s="1" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G257" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H257" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="258" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C258" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G258" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="H258" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="259" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="E257" s="4"/>
+      <c r="G257" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="259" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C259" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G259" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H259" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="260" spans="3:8" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="260" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C260" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="261" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C261" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H261" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C262" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H262" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="263" spans="3:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C263" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>110</v>
+        <v>437</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>298</v>
+        <v>451</v>
       </c>
       <c r="H263" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="264" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C264" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G264" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="H264" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="265" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="265" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C265" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H265" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="266" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C266" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H266" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="267" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C267" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>442</v>
+        <v>110</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>457</v>
+        <v>298</v>
       </c>
       <c r="H267" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="268" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C268" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G268" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="269" spans="3:8" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="G268" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="H268" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="269" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C269" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H269" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="270" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C270" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>112</v>
+        <v>441</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H270" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="271" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C271" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>113</v>
+        <v>442</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H271" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="272" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C272" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G272" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="H272" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="273" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="273" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C273" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H273" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="274" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C274" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G274" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="275" spans="3:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="G274" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="H274" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="275" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C275" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G275" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="276" spans="3:8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="G275" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="H275" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="276" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C276" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G276" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="277" spans="3:8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="G276" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="H276" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C277" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D277" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="H277" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="278" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C278" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="279" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C279" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="280" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C280" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="281" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C281" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G277" s="5" t="s">
+      <c r="G281" s="5" t="s">
         <v>468</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E154 E254:E1048576 G1:H1 E156:E249">
+  <conditionalFormatting sqref="E1:E158 E258:E1048576 G1:H1 E160:E253">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E250:E253">
+  <conditionalFormatting sqref="E254:E257">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",E250)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",E254)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
+  <conditionalFormatting sqref="E159">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",E155)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",E159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7596,6 +7689,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010012B4A3D049DEEC42A38822CA570C13A2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="927411b58ac0ee203ee175278e346d2f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b157bdf-1aa1-4699-b348-b072956d5891" xmlns:ns4="c7f03e65-6723-42e1-a025-db17e2e40490" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2be55ef39e19178f1828f9893afb5a5" ns3:_="" ns4:_="">
     <xsd:import namespace="6b157bdf-1aa1-4699-b348-b072956d5891"/>
@@ -7818,22 +7926,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D93A991-478B-499D-AF9B-1F0B37B6B22A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961E40A6-F9B0-4484-A79E-BC0DB6B09F97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6b157bdf-1aa1-4699-b348-b072956d5891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c7f03e65-6723-42e1-a025-db17e2e40490"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B94574A-C6C0-4165-9FD3-38C369A82B5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7850,29 +7968,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D93A991-478B-499D-AF9B-1F0B37B6B22A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{961E40A6-F9B0-4484-A79E-BC0DB6B09F97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6b157bdf-1aa1-4699-b348-b072956d5891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c7f03e65-6723-42e1-a025-db17e2e40490"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>